--- a/src/main/java/AllElements/keywordDriverLocators.xlsx
+++ b/src/main/java/AllElements/keywordDriverLocators.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuNiOr\IdeaProjects\KeywordDrivernWithClassApril25\src\main\java\AllElements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533D2A3B-C6EE-458F-B3BB-3DCB5407A0BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052AFB85-2BEF-454F-9854-40286A6F6667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="HomePage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t xml:space="preserve">Element Name </t>
   </si>
@@ -43,6 +44,27 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>loginButton</t>
+  </si>
+  <si>
+    <t>loginBtn</t>
+  </si>
+  <si>
+    <t>serviceDropdown</t>
+  </si>
+  <si>
+    <t>nav-primary-service-branch</t>
+  </si>
+  <si>
+    <t>ticketInDropdown</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>(//div[contains(text(),'Tickets')])[1]</t>
   </si>
 </sst>
 </file>
@@ -374,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,7 +442,73 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186BE43B-C8E0-4216-914D-FC935E5099EB}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/AllElements/keywordDriverLocators.xlsx
+++ b/src/main/java/AllElements/keywordDriverLocators.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuNiOr\IdeaProjects\KeywordDrivernWithClassApril25\src\main\java\AllElements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052AFB85-2BEF-454F-9854-40286A6F6667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC1B22F-0FBF-4423-8CAB-E5043F2CD25C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="HomePage" sheetId="2" r:id="rId2"/>
+    <sheet name="Tickets" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t xml:space="preserve">Element Name </t>
   </si>
@@ -65,6 +66,51 @@
   </si>
   <si>
     <t>(//div[contains(text(),'Tickets')])[1]</t>
+  </si>
+  <si>
+    <t>CreateTicket</t>
+  </si>
+  <si>
+    <t>//button[@data-onboarding='new-object-button']</t>
+  </si>
+  <si>
+    <t>TicketName</t>
+  </si>
+  <si>
+    <t>cssSelector</t>
+  </si>
+  <si>
+    <t>input[data-selenium-test='property-input-subject']</t>
+  </si>
+  <si>
+    <t>TicketStatusDropdown</t>
+  </si>
+  <si>
+    <t>//button[@data-selenium-test='property-input-hs_pipeline_stage']</t>
+  </si>
+  <si>
+    <t>//button[@title='New']</t>
+  </si>
+  <si>
+    <t>OptionWaitingOnUS</t>
+  </si>
+  <si>
+    <t>OptionClosed</t>
+  </si>
+  <si>
+    <t>OptionNew</t>
+  </si>
+  <si>
+    <t>OptionWaitingOnContact</t>
+  </si>
+  <si>
+    <t>//button[@title='Waiting on contact']</t>
+  </si>
+  <si>
+    <t>//button[@title='Waiting on us']</t>
+  </si>
+  <si>
+    <t>//button[@title='Closed']</t>
   </si>
 </sst>
 </file>
@@ -463,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186BE43B-C8E0-4216-914D-FC935E5099EB}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,4 +557,113 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592C15A1-F770-475E-8AE4-5A482F29EF89}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>